--- a/asset/diagram.xlsx
+++ b/asset/diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/TP_Villes_du_Monde/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F413C68E-5524-B44C-8F60-0C63E70EA6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D00F15B-8DBD-2C43-9009-1F0A7049B276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Diagram!$C$1:$L$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Diagram!$C$1:$M$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,119 +38,190 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>dataSource</t>
   </si>
   <si>
-    <t>points = 0</t>
-  </si>
-  <si>
     <t>init(dataSource)</t>
   </si>
   <si>
-    <t>increasePoints()</t>
-  </si>
-  <si>
     <t>buttonDiv</t>
   </si>
   <si>
     <t>disable(bool = true)</t>
   </si>
   <si>
-    <t>isDisable = false</t>
-  </si>
-  <si>
-    <t>Initialize the game with its dataSource.</t>
-  </si>
-  <si>
-    <t>Inscrease the number of points.</t>
-  </si>
-  <si>
     <t>Properties / Methods</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Assignment</t>
-  </si>
-  <si>
-    <t>The game's points</t>
-  </si>
-  <si>
     <t>class AbstractButton(buttonDiv)</t>
   </si>
   <si>
-    <t>Disable or not the button.</t>
-  </si>
-  <si>
-    <t>class Card(buttonDiv)</t>
-  </si>
-  <si>
-    <t>get letter</t>
-  </si>
-  <si>
-    <t>return the letter's card.</t>
-  </si>
-  <si>
-    <t>get face</t>
-  </si>
-  <si>
-    <t>return the face's div card.</t>
-  </si>
-  <si>
-    <t>get back</t>
-  </si>
-  <si>
-    <t>return the back's div card.</t>
-  </si>
-  <si>
-    <t>activate(flag)</t>
-  </si>
-  <si>
-    <t>Activate of not the card with the flip.</t>
-  </si>
-  <si>
-    <t>rotate()</t>
-  </si>
-  <si>
-    <t>Rotate the card.</t>
-  </si>
-  <si>
-    <t>Nejin</t>
-  </si>
-  <si>
-    <t>Joséphine</t>
-  </si>
-  <si>
-    <t>class Line(dataSource)</t>
-  </si>
-  <si>
-    <t>class AbstractApp</t>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>UIView</t>
+  </si>
+  <si>
+    <t>le conteneur du composant</t>
+  </si>
+  <si>
+    <t>valueComponent</t>
+  </si>
+  <si>
+    <t>La valeur du composant (généralement une chaine)</t>
+  </si>
+  <si>
+    <t>get value</t>
+  </si>
+  <si>
+    <t>getter de valueComponent</t>
+  </si>
+  <si>
+    <t>set value</t>
+  </si>
+  <si>
+    <t>setter de valueComponent</t>
+  </si>
+  <si>
+    <t>init()</t>
+  </si>
+  <si>
+    <t>Méthode d'initialisation du composant. Doit être surchargée dans les héritages.</t>
+  </si>
+  <si>
+    <t>class AbstractUIComponent(UIView) inherit EventTarget</t>
+  </si>
+  <si>
+    <t>boundEventHandler</t>
+  </si>
+  <si>
+    <t>isDisabled = false</t>
+  </si>
+  <si>
+    <t>propriété pour le binding du scope dans une classe</t>
+  </si>
+  <si>
+    <t>Désactive ou non le boutton.</t>
+  </si>
+  <si>
+    <t>Gestionnaire déclanché lors du click sur le boutton.</t>
+  </si>
+  <si>
+    <t>buttonClickHandler()</t>
+  </si>
+  <si>
+    <t>class AbstractApp(containerDiv) inherit EventTarget</t>
+  </si>
+  <si>
+    <t>containerDiv</t>
+  </si>
+  <si>
+    <t>Le conteneur de l'application</t>
+  </si>
+  <si>
+    <t>Initialise l'app avec la source de données.</t>
+  </si>
+  <si>
+    <t>La source des données à utiliser.</t>
+  </si>
+  <si>
+    <t>class WorldCities(containerDiv) inherit AbstractApp</t>
+  </si>
+  <si>
+    <t>towns</t>
+  </si>
+  <si>
+    <t>Le tableau de villes</t>
+  </si>
+  <si>
+    <t>baseTowns</t>
+  </si>
+  <si>
+    <t>Le tableau d'orrigines de villes (pour le filtrage)</t>
+  </si>
+  <si>
+    <t>indexer</t>
+  </si>
+  <si>
+    <t>Le composant avec les bouttons suivant / précécent pour changer l'index des données en cours.</t>
+  </si>
+  <si>
+    <t>searchIpt</t>
+  </si>
+  <si>
+    <t>Le composant avec le champs de filtrage + boutton de réinitialisation.</t>
+  </si>
+  <si>
+    <t>set index</t>
+  </si>
+  <si>
+    <t>setter pour définir l'index en cours. Utile lors du passage de l'index dans l'URL pour accéder directement à une ville.</t>
+  </si>
+  <si>
+    <t>initTowns(dataSource)</t>
+  </si>
+  <si>
+    <t>Initialise le tableau de villes.</t>
+  </si>
+  <si>
+    <t>loadTown(index)</t>
+  </si>
+  <si>
+    <t>Affiche le contenu des infos d'une ville dans les champs correspondants.</t>
+  </si>
+  <si>
+    <t>loadGallery(images)</t>
+  </si>
+  <si>
+    <t>Affiche les images du tableau d'images passés en paramètre à partir de la méthode loadTown().</t>
+  </si>
+  <si>
+    <t>Gestionnaire exécuté lors de la saisie d'un texte dans le champs de recherche.</t>
+  </si>
+  <si>
+    <t>Gestionnaire exécuté lors de l'effacement du texte du champs de recherche.</t>
+  </si>
+  <si>
+    <t>searchInputHandler()</t>
+  </si>
+  <si>
+    <t>clearSearchInputHandler()</t>
+  </si>
+  <si>
+    <t>refresh()</t>
+  </si>
+  <si>
+    <t>Rafraichit l'app lors du filtrage ou de sa réinitialisation.</t>
+  </si>
+  <si>
+    <t>filterElement(arr, filter)</t>
+  </si>
+  <si>
+    <t>Méthode de filtrage du tableau de villes.</t>
+  </si>
+  <si>
+    <t>initInput()</t>
+  </si>
+  <si>
+    <t>Méthode d'initialisation du composant SearchInput.</t>
+  </si>
+  <si>
+    <t>indexerIndexChangeHandler()</t>
+  </si>
+  <si>
+    <t>Gestionnaire exécuté lors du changement d'index dans le composant indexer.</t>
+  </si>
+  <si>
+    <t>initIndexer()</t>
+  </si>
+  <si>
+    <t>Méthode d'initialisation du composant Indexer.</t>
   </si>
 </sst>
 </file>
@@ -188,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -313,6 +384,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -321,13 +453,37 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -337,8 +493,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -348,12 +519,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +568,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2523067</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>67733</xdr:rowOff>
@@ -394,7 +587,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12073467" y="3657600"/>
+          <a:off x="14342534" y="3606800"/>
           <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -430,23 +623,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>728133</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>186266</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1473827</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>315</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Connecteur droit avec flèche 4">
+        <xdr:cNvPr id="2" name="Connecteur droit avec flèche 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E9C6AB-2924-644A-B7E4-6B03D7608218}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD20EC0-FBEA-9D40-90BF-8DE5749D5219}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -454,8 +647,61 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="17780000" y="1236133"/>
-          <a:ext cx="135467" cy="1388534"/>
+          <a:off x="3151481" y="2610556"/>
+          <a:ext cx="135467" cy="1834759"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1103947</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>195384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1133231</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connecteur droit avec flèche 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A32597F-6AAB-C242-B2F7-D44A43CCAA0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335024" y="1914769"/>
+          <a:ext cx="29284" cy="2540000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -784,339 +1030,520 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.1640625" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J2" s="6" t="str">
+    <row r="2" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="G3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="K3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="K2" s="6" t="str">
+      <c r="C4" s="6" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="L2" s="7" t="str">
+      <c r="D4" s="7" t="str">
         <f>Param!A3</f>
-        <v>Assignment</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="J3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="6" t="str">
+        <v>Check</v>
+      </c>
+      <c r="G4" s="6" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="G4" s="6" t="str">
+      <c r="H4" s="6" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="H4" s="6" t="str">
+      <c r="I4" s="6" t="str">
         <f>Param!A3</f>
-        <v>Assignment</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="J5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="F6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="F7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="14"/>
-      <c r="J14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="14"/>
-      <c r="J15" s="6" t="str">
+        <v>Check</v>
+      </c>
+      <c r="K4" s="6" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="K15" s="6" t="str">
+      <c r="L4" s="7" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="L15" s="6" t="str">
+      <c r="M4" s="7" t="str">
         <f>Param!A3</f>
-        <v>Assignment</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="14"/>
-      <c r="J16" s="4" t="s">
+        <v>Check</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="G5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="K5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="G6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="K6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="G7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="K7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="K8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="2:15" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="C9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="14"/>
-      <c r="J17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="14"/>
-      <c r="J18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14"/>
-      <c r="J19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="K9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="J20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" cm="1">
-        <f t="array" ref="A46:A53">C17:C24</f>
-        <v>0</v>
-      </c>
-      <c r="D46" t="str" cm="1">
-        <f t="array" ref="D46:D47">J19:J20</f>
-        <v>activate(flag)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>0</v>
-      </c>
-      <c r="D47" t="str">
-        <v>rotate()</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>0</v>
-      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="J21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="6" t="str">
+        <f>Param!A1</f>
+        <v>Properties / Methods</v>
+      </c>
+      <c r="H23" s="36" t="str">
+        <f>Param!A2</f>
+        <v>Description</v>
+      </c>
+      <c r="I23" s="6" t="str">
+        <f>Param!A3</f>
+        <v>Check</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="2:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="G25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="2:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="G26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="2:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="G27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="2:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="G28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="G29" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="G30" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="G31" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="G32" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="7:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="G33" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="7:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="G34" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="7:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="G35" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="7:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="G36" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="7:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="G37" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="7:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C9:E9"/>
+  <mergeCells count="5">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -1139,17 +1566,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/asset/diagram.xlsx
+++ b/asset/diagram.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/TP_Villes_du_Monde/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D00F15B-8DBD-2C43-9009-1F0A7049B276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732F2CD3-E1CB-794E-B965-F3E919781795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="1" r:id="rId1"/>
     <sheet name="Param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Diagram!$C$1:$M$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Diagram!$A$1:$R$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>dataSource</t>
   </si>
@@ -62,9 +62,6 @@
     <t>class AbstractButton(buttonDiv)</t>
   </si>
   <si>
-    <t>Check</t>
-  </si>
-  <si>
     <t>UIView</t>
   </si>
   <si>
@@ -222,6 +219,126 @@
   </si>
   <si>
     <t>Méthode d'initialisation du composant Indexer.</t>
+  </si>
+  <si>
+    <t>class SearchInput(UIView) inherit AbstractUIComponent</t>
+  </si>
+  <si>
+    <t>boundSearchInputHandler</t>
+  </si>
+  <si>
+    <t>boundClearSearchHandler</t>
+  </si>
+  <si>
+    <t>propriété pour le binding de searchInputHandler lors de la saisie de texte (voir exemple dans TP Jeu de Paires).</t>
+  </si>
+  <si>
+    <t>propriété pour le binding de clearSearchHandler lors de l'effacement de texte (voir exemple dans TP Jeu de Paires).</t>
+  </si>
+  <si>
+    <t>getter du composant (surcharge)</t>
+  </si>
+  <si>
+    <t>setter du composant (surcharge)</t>
+  </si>
+  <si>
+    <t>Méthode d'initialisation du composant (surcharge)</t>
+  </si>
+  <si>
+    <t>clearSearchHandler()</t>
+  </si>
+  <si>
+    <t>Gestionnaire exécuté lors de la saisie de texte. Dispatch un SearchInputEvent de type SearchInputEventNames.SEARCH_INPUT écouté dans l'app.</t>
+  </si>
+  <si>
+    <t>Gestionnaire exécuté lors de l'effacement du champs de texte quand on clique sur le boutton d'effacement. Dispatch un SearchInputEvent de type SearchInputEventNames.CLEAR_SEARCH_INPUT écouté dans l'app.</t>
+  </si>
+  <si>
+    <t>checkClearButton()</t>
+  </si>
+  <si>
+    <t>Désactive ou active le boutton si le champs de texte est vide ou pas.</t>
+  </si>
+  <si>
+    <t>Checked</t>
+  </si>
+  <si>
+    <t>class Indexer(UIView) inherit AbstractUIComponent</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>le total d'éléments.</t>
+  </si>
+  <si>
+    <t>indexerMode</t>
+  </si>
+  <si>
+    <t>Le mode (répétition, aucun, etc...)</t>
+  </si>
+  <si>
+    <t>nextBtn</t>
+  </si>
+  <si>
+    <t>Le boutton suivant</t>
+  </si>
+  <si>
+    <t>previousBtn</t>
+  </si>
+  <si>
+    <t>Le boutton précédent</t>
+  </si>
+  <si>
+    <t>setter pour définir le mode si besoin après initialisation.</t>
+  </si>
+  <si>
+    <t>set mode</t>
+  </si>
+  <si>
+    <t>set totalItems</t>
+  </si>
+  <si>
+    <t>setter pour définir le total d'éléments. Définit lors du filtrage et la réinitialisation du filtrage.</t>
+  </si>
+  <si>
+    <t>surcharge pour retourner la valeur du composant.</t>
+  </si>
+  <si>
+    <t>changeIndex(direction)</t>
+  </si>
+  <si>
+    <t>Change l'index en fonction de la direction déterminée par le clic sur les boutons suivant / précédent.</t>
+  </si>
+  <si>
+    <t>checkIndex()</t>
+  </si>
+  <si>
+    <t>Vérifie l'index en fonction du mode et le remet à 0 si out of range (voir TP Citations).</t>
+  </si>
+  <si>
+    <t>setNumbers()</t>
+  </si>
+  <si>
+    <t>getZeroFormat(num, limit)</t>
+  </si>
+  <si>
+    <t>Affiche 2/8, 06/12, etc… à l'aide de la méthode getZeroFormat().</t>
+  </si>
+  <si>
+    <t>Retourne l'index / total formaté (voir TP Citations).</t>
+  </si>
+  <si>
+    <t>initButtons()</t>
+  </si>
+  <si>
+    <t>Initialise les boutons suivant / précédent.</t>
+  </si>
+  <si>
+    <t>class IndexerButton(buttonDiv) inherit AbstractButton</t>
+  </si>
+  <si>
+    <t>Surcharge la méthode et définit une classe CSS en plus de la méthode de base.</t>
   </si>
 </sst>
 </file>
@@ -259,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -421,6 +538,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -479,11 +616,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -497,17 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -525,28 +674,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,10 +915,10 @@
       <xdr:rowOff>195384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1133231</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -700,8 +933,114 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13335024" y="1914769"/>
-          <a:ext cx="29284" cy="2540000"/>
+          <a:off x="14159547" y="1973384"/>
+          <a:ext cx="3722053" cy="2649416"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3235521</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Connecteur droit avec flèche 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F904518E-68B7-4E49-952B-9C2424FDAB4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6649281" y="2437836"/>
+          <a:ext cx="4008559" cy="1859844"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>511280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>110717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>237067</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Connecteur droit avec flèche 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEBC8B3F-9512-3249-9F6A-A5D1ABE35161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23354347" y="2532184"/>
+          <a:ext cx="5279920" cy="1836616"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1030,44 +1369,47 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:O38"/>
+  <dimension ref="A2:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="59" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.1640625" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="G3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="K3" s="20" t="s">
+      <c r="B3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="G3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="K3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
@@ -1080,7 +1422,7 @@
       </c>
       <c r="D4" s="7" t="str">
         <f>Param!A3</f>
-        <v>Check</v>
+        <v>Checked</v>
       </c>
       <c r="G4" s="6" t="str">
         <f>Param!A1</f>
@@ -1092,7 +1434,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f>Param!A3</f>
-        <v>Check</v>
+        <v>Checked</v>
       </c>
       <c r="K4" s="6" t="str">
         <f>Param!A1</f>
@@ -1104,112 +1446,112 @@
       </c>
       <c r="M4" s="7" t="str">
         <f>Param!A3</f>
-        <v>Check</v>
+        <v>Checked</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="14"/>
+      <c r="G5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="K5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:15" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="G5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="C6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="G6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="K6" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="G7" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="K5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="G6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="K6" s="4" t="s">
+      <c r="I7" s="5"/>
+      <c r="K7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="L7" s="48"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="G7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="K7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="2:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="18"/>
+      <c r="L8" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="2:15" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="K9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="17" t="s">
+      <c r="K9" s="32" t="s">
         <v>23</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="M9" s="3"/>
     </row>
@@ -1255,9 +1597,9 @@
       <c r="F14" s="10"/>
       <c r="G14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
@@ -1289,7 +1631,7 @@
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1303,7 +1645,7 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1317,7 +1659,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1331,12 +1673,17 @@
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
+    <row r="20" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="E20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -1344,209 +1691,390 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
+    <row r="21" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="str">
+        <f>Param!A1</f>
+        <v>Properties / Methods</v>
+      </c>
+      <c r="B21" s="6" t="str">
+        <f>Param!A2</f>
+        <v>Description</v>
+      </c>
+      <c r="C21" s="7" t="str">
+        <f>Param!A3</f>
+        <v>Checked</v>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f>Param!A1</f>
+        <v>Properties / Methods</v>
+      </c>
+      <c r="F21" s="6" t="str">
+        <f>Param!A2</f>
+        <v>Description</v>
+      </c>
+      <c r="G21" s="6" t="str">
+        <f>Param!A3</f>
+        <v>Checked</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="9"/>
+      <c r="O21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="1:17" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="E22" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="I22" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-    </row>
-    <row r="23" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="6" t="str">
+      <c r="O22" s="6" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="H23" s="36" t="str">
+      <c r="P22" s="7" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
+      <c r="Q22" s="7" t="str">
+        <f>Param!A3</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="E23" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="4"/>
       <c r="I23" s="6" t="str">
+        <f>Param!A1</f>
+        <v>Properties / Methods</v>
+      </c>
+      <c r="J23" s="26" t="str">
+        <f>Param!A2</f>
+        <v>Description</v>
+      </c>
+      <c r="K23" s="6" t="str">
         <f>Param!A3</f>
-        <v>Check</v>
-      </c>
-      <c r="J23" s="9"/>
+        <v>Checked</v>
+      </c>
       <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="2:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="14" t="s">
+      <c r="O23" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="E24" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="I24" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="9"/>
+      <c r="K24" s="13"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-    </row>
-    <row r="25" spans="2:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="G25" s="4" t="s">
+      <c r="P24" s="20"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="E25" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="I25" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="9"/>
+      <c r="K25" s="4"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="2:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="G26" s="4" t="s">
+      <c r="P25" s="20"/>
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="E26" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="I26" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="K26" s="4"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="E27" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="I27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="2:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="G27" s="29" t="s">
+      <c r="J27" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="K27" s="4"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="E28" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="I28" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="2:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="G28" s="28" t="s">
+      <c r="J28" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="1:17" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="E29" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="I29" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="35"/>
-    </row>
-    <row r="29" spans="2:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="G29" s="29" t="s">
+      <c r="J29" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="E30" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="I30" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="2:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="G30" s="29" t="s">
+      <c r="J30" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="E31" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="I31" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="2:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="G31" s="29" t="s">
+      <c r="J31" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="E32" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="I32" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="G32" s="29" t="s">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="5:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="E33" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="I33" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="J33" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="7:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="G33" s="29" t="s">
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="5:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="I34" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="7:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="G34" s="29" t="s">
+      <c r="J34" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="5:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I35" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="7:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="G35" s="29" t="s">
+      <c r="J35" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="5:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I36" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="7:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="G36" s="29" t="s">
+      <c r="J36" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="5:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="I37" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="7:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="G37" s="29" t="s">
+      <c r="J37" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="5:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="7:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="15" t="s">
+      <c r="J38" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" s="5"/>
+      <c r="K38" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="O21:Q21"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="29" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1576,7 +2104,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/asset/diagram.xlsx
+++ b/asset/diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/TP_Villes_du_Monde/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732F2CD3-E1CB-794E-B965-F3E919781795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D253B89-48E2-BF41-8DD1-8414B07B4C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
   </bookViews>
@@ -642,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -779,6 +779,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1371,8 +1374,8 @@
   </sheetPr>
   <dimension ref="A2:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="59" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="59" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1773,15 +1776,15 @@
         <v>78</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="I23" s="6" t="str">
+      <c r="I23" s="51" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="J23" s="26" t="str">
+      <c r="J23" s="61" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="K23" s="6" t="str">
+      <c r="K23" s="51" t="str">
         <f>Param!A3</f>
         <v>Checked</v>
       </c>
